--- a/KPI-Dashboard-Template-TemplateLab.com_.xlsx
+++ b/KPI-Dashboard-Template-TemplateLab.com_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Downloads\Payroll Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD891109-8967-4053-B7A7-81B65DC4DB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FC17E0-4958-4D44-9C77-36E072A1FFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8BD08E8D-A4CA-4FA1-8720-AF9E08893200}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8BD08E8D-A4CA-4FA1-8720-AF9E08893200}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -5880,9 +5880,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5920,7 +5920,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6026,7 +6026,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6168,7 +6168,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12557,8 +12557,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -13327,6 +13327,15 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="L2:N2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C11 L11">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="0.95"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C11">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols">
@@ -13343,8 +13352,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11 L11">
-    <cfRule type="iconSet" priority="4">
+  <conditionalFormatting sqref="C21 L21">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0.8"/>
@@ -13365,15 +13374,6 @@
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="95"/>
         <cfvo type="percent" val="100"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21 L21">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0.8"/>
-        <cfvo type="num" val="0.95"/>
       </iconSet>
     </cfRule>
   </conditionalFormatting>
